--- a/Area de Proceso REQM/MTREQM_V0.1_2015.xlsx
+++ b/Area de Proceso REQM/MTREQM_V0.1_2015.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aol.UTP\12\Proyecto I\Proyecto TopBody\SistemaDeMatricula-ParaSocios-TopBody\Area de Proceso REQM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="17970" windowHeight="6075" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="20490" windowHeight="7890" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="133">
   <si>
     <t>HISTORIAL DE LAS REVISIONES</t>
   </si>
@@ -353,9 +358,6 @@
   </si>
   <si>
     <t>Fecha Efectiva: 08/10/2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              CALIFA SOURCE</t>
   </si>
   <si>
     <t>Calvo Guillen</t>
@@ -1202,7 +1204,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
@@ -1391,6 +1393,21 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1457,40 +1474,85 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1502,74 +1564,101 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1595,86 +1684,14 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1733,29 +1750,20 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1784,13 +1792,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>621749</xdr:colOff>
+      <xdr:colOff>536024</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -1815,7 +1823,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1000125" y="47625"/>
+          <a:off x="914400" y="47625"/>
           <a:ext cx="1145624" cy="790575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2230,7 +2238,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2241,7 +2249,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2251,99 +2259,99 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="72"/>
-      <c r="B1" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="76"/>
+      <c r="B1" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
       <c r="I1" s="71"/>
       <c r="J1" s="71"/>
       <c r="K1" s="72"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" s="72"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="79"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="84"/>
       <c r="I2" s="72"/>
       <c r="J2" s="72"/>
       <c r="K2" s="72"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" s="72"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="79"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
       <c r="I3" s="72"/>
       <c r="J3" s="72"/>
       <c r="K3" s="72"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="72"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="79"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="84"/>
       <c r="I4" s="72"/>
       <c r="J4" s="72"/>
       <c r="K4" s="72"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A5" s="72"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="82"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="87"/>
       <c r="I5" s="72"/>
       <c r="J5" s="72"/>
       <c r="K5" s="72"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="85"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="90"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B7" s="86"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="88"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="93"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1">
-      <c r="B8" s="89"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="91"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="96"/>
     </row>
     <row r="9" spans="1:11" ht="36">
       <c r="B9" s="73" t="s">
@@ -2369,36 +2377,36 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="92">
+      <c r="B10" s="97">
         <v>1</v>
       </c>
-      <c r="C10" s="93">
+      <c r="C10" s="98">
         <v>0.1</v>
       </c>
-      <c r="D10" s="94">
+      <c r="D10" s="99">
         <v>42285</v>
       </c>
-      <c r="E10" s="92" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" s="92" t="s">
+      <c r="E10" s="97" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="92" t="s">
+      <c r="G10" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="92" t="s">
+      <c r="H10" s="97" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="92"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
     </row>
     <row r="12" spans="1:11">
       <c r="B12" s="1"/>
@@ -2448,127 +2456,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:12" ht="15" customHeight="1">
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="76"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="81"/>
     </row>
     <row r="2" spans="2:12" ht="15" customHeight="1">
-      <c r="B2" s="77"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="79"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="79"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1">
-      <c r="B4" s="77"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="79"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="84"/>
     </row>
     <row r="5" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B5" s="80"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="82"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="87"/>
     </row>
     <row r="6" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="103"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="102"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B7" s="98"/>
-      <c r="C7" s="125" t="s">
+      <c r="B7" s="131"/>
+      <c r="C7" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="127"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="105"/>
     </row>
     <row r="8" spans="2:12" ht="50.25" customHeight="1" thickBot="1">
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="99" t="s">
+      <c r="C8" s="102"/>
+      <c r="D8" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="101"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="133"/>
+      <c r="K8" s="133"/>
+      <c r="L8" s="134"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="4"/>
@@ -2584,21 +2592,21 @@
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="128" t="s">
+      <c r="B10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="128"/>
+      <c r="C10" s="106"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="129" t="s">
+      <c r="E10" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="131"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="109"/>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="3"/>
@@ -2614,21 +2622,21 @@
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="132" t="s">
+      <c r="B12" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="132"/>
+      <c r="C12" s="110"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="121" t="s">
+      <c r="E12" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="8"/>
@@ -2644,21 +2652,21 @@
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="120" t="s">
+      <c r="B14" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="120"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="121" t="s">
+      <c r="E14" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="121"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="3"/>
@@ -2674,21 +2682,21 @@
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="122"/>
+      <c r="C16" s="113"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="121" t="s">
+      <c r="E16" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="121"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="111"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="3"/>
@@ -2704,21 +2712,21 @@
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="123" t="s">
+      <c r="B18" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="123"/>
+      <c r="C18" s="114"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="121" t="s">
+      <c r="E18" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="121"/>
-      <c r="K18" s="121"/>
-      <c r="L18" s="121"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="111"/>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="4"/>
@@ -2747,319 +2755,319 @@
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="112" t="s">
+      <c r="B21" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="112"/>
-      <c r="L21" s="112"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="116"/>
+      <c r="K21" s="116"/>
+      <c r="L21" s="116"/>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="113" t="s">
+      <c r="B22" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115" t="s">
+      <c r="C22" s="118"/>
+      <c r="D22" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="115"/>
-      <c r="L22" s="115"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="119"/>
     </row>
     <row r="23" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B23" s="110" t="s">
+      <c r="B23" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="110"/>
-      <c r="D23" s="117" t="s">
+      <c r="C23" s="120"/>
+      <c r="D23" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="119"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="122"/>
+      <c r="K23" s="122"/>
+      <c r="L23" s="123"/>
     </row>
     <row r="24" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="110"/>
-      <c r="D24" s="111" t="s">
+      <c r="C24" s="120"/>
+      <c r="D24" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="111"/>
-      <c r="L24" s="111"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="124"/>
     </row>
     <row r="25" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="110"/>
-      <c r="D25" s="111" t="s">
+      <c r="C25" s="120"/>
+      <c r="D25" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="111"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="111"/>
-      <c r="J25" s="111"/>
-      <c r="K25" s="111"/>
-      <c r="L25" s="111"/>
+      <c r="E25" s="124"/>
+      <c r="F25" s="124"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="124"/>
+      <c r="I25" s="124"/>
+      <c r="J25" s="124"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="124"/>
     </row>
     <row r="26" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B26" s="112" t="s">
+      <c r="B26" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="112"/>
-      <c r="K26" s="112"/>
-      <c r="L26" s="112"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="116"/>
+      <c r="K26" s="116"/>
+      <c r="L26" s="116"/>
     </row>
     <row r="27" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B27" s="113" t="s">
+      <c r="B27" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="114"/>
-      <c r="D27" s="115" t="s">
+      <c r="C27" s="118"/>
+      <c r="D27" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="115"/>
-      <c r="K27" s="115"/>
-      <c r="L27" s="115"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="119"/>
+      <c r="H27" s="119"/>
+      <c r="I27" s="119"/>
+      <c r="J27" s="119"/>
+      <c r="K27" s="119"/>
+      <c r="L27" s="119"/>
     </row>
     <row r="28" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B28" s="116" t="s">
+      <c r="B28" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="116"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="116"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="115"/>
+      <c r="L28" s="115"/>
     </row>
     <row r="29" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B29" s="95" t="s">
+      <c r="B29" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="95"/>
-      <c r="D29" s="107" t="s">
+      <c r="C29" s="126"/>
+      <c r="D29" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="108"/>
-      <c r="L29" s="109"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="128"/>
+      <c r="I29" s="128"/>
+      <c r="J29" s="128"/>
+      <c r="K29" s="128"/>
+      <c r="L29" s="129"/>
     </row>
     <row r="30" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B30" s="95" t="s">
+      <c r="B30" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="95"/>
-      <c r="D30" s="96" t="s">
+      <c r="C30" s="126"/>
+      <c r="D30" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="96"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="125"/>
+      <c r="K30" s="125"/>
+      <c r="L30" s="125"/>
     </row>
     <row r="31" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B31" s="95" t="s">
+      <c r="B31" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="95"/>
-      <c r="D31" s="96" t="s">
+      <c r="C31" s="126"/>
+      <c r="D31" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="96"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="96"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="125"/>
+      <c r="J31" s="125"/>
+      <c r="K31" s="125"/>
+      <c r="L31" s="125"/>
     </row>
     <row r="32" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B32" s="95" t="s">
+      <c r="B32" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="95"/>
-      <c r="D32" s="96" t="s">
+      <c r="C32" s="126"/>
+      <c r="D32" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="96"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="96"/>
+      <c r="E32" s="125"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="125"/>
+      <c r="H32" s="125"/>
+      <c r="I32" s="125"/>
+      <c r="J32" s="125"/>
+      <c r="K32" s="125"/>
+      <c r="L32" s="125"/>
     </row>
     <row r="33" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B33" s="95" t="s">
+      <c r="B33" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="95"/>
-      <c r="D33" s="96" t="s">
+      <c r="C33" s="126"/>
+      <c r="D33" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="96"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="125"/>
+      <c r="H33" s="125"/>
+      <c r="I33" s="125"/>
+      <c r="J33" s="125"/>
+      <c r="K33" s="125"/>
+      <c r="L33" s="125"/>
     </row>
     <row r="34" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B34" s="95" t="s">
+      <c r="B34" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="95"/>
-      <c r="D34" s="96" t="s">
+      <c r="C34" s="126"/>
+      <c r="D34" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="96"/>
-      <c r="J34" s="96"/>
-      <c r="K34" s="96"/>
-      <c r="L34" s="96"/>
+      <c r="E34" s="125"/>
+      <c r="F34" s="125"/>
+      <c r="G34" s="125"/>
+      <c r="H34" s="125"/>
+      <c r="I34" s="125"/>
+      <c r="J34" s="125"/>
+      <c r="K34" s="125"/>
+      <c r="L34" s="125"/>
     </row>
     <row r="35" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B35" s="95" t="s">
+      <c r="B35" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="95"/>
-      <c r="D35" s="96" t="s">
+      <c r="C35" s="126"/>
+      <c r="D35" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="96"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="96"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="96"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
+      <c r="I35" s="125"/>
+      <c r="J35" s="125"/>
+      <c r="K35" s="125"/>
+      <c r="L35" s="125"/>
     </row>
     <row r="36" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B36" s="104" t="s">
+      <c r="B36" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="105"/>
-      <c r="K36" s="105"/>
-      <c r="L36" s="106"/>
+      <c r="C36" s="136"/>
+      <c r="D36" s="136"/>
+      <c r="E36" s="136"/>
+      <c r="F36" s="136"/>
+      <c r="G36" s="136"/>
+      <c r="H36" s="136"/>
+      <c r="I36" s="136"/>
+      <c r="J36" s="136"/>
+      <c r="K36" s="136"/>
+      <c r="L36" s="137"/>
     </row>
     <row r="37" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B37" s="95" t="s">
+      <c r="B37" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="95"/>
-      <c r="D37" s="96" t="s">
+      <c r="C37" s="126"/>
+      <c r="D37" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="96"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="96"/>
-      <c r="J37" s="96"/>
-      <c r="K37" s="96"/>
-      <c r="L37" s="96"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="125"/>
+      <c r="G37" s="125"/>
+      <c r="H37" s="125"/>
+      <c r="I37" s="125"/>
+      <c r="J37" s="125"/>
+      <c r="K37" s="125"/>
+      <c r="L37" s="125"/>
     </row>
     <row r="38" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B38" s="95" t="s">
+      <c r="B38" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="95"/>
-      <c r="D38" s="96" t="s">
+      <c r="C38" s="126"/>
+      <c r="D38" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="96"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="96"/>
-      <c r="J38" s="96"/>
-      <c r="K38" s="96"/>
-      <c r="L38" s="96"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="125"/>
+      <c r="G38" s="125"/>
+      <c r="H38" s="125"/>
+      <c r="I38" s="125"/>
+      <c r="J38" s="125"/>
+      <c r="K38" s="125"/>
+      <c r="L38" s="125"/>
     </row>
     <row r="39" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B39" s="95" t="s">
+      <c r="B39" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="95"/>
-      <c r="D39" s="96" t="s">
+      <c r="C39" s="126"/>
+      <c r="D39" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="96"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="96"/>
-      <c r="J39" s="96"/>
-      <c r="K39" s="96"/>
-      <c r="L39" s="96"/>
+      <c r="E39" s="125"/>
+      <c r="F39" s="125"/>
+      <c r="G39" s="125"/>
+      <c r="H39" s="125"/>
+      <c r="I39" s="125"/>
+      <c r="J39" s="125"/>
+      <c r="K39" s="125"/>
+      <c r="L39" s="125"/>
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="4"/>
@@ -3206,40 +3214,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:L12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:L14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:L16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:L18"/>
-    <mergeCell ref="B28:L28"/>
-    <mergeCell ref="B21:L21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:L22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:L23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:L24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:L25"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:L27"/>
-    <mergeCell ref="D33:L33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:L34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:L29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:L30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:L31"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:L39"/>
     <mergeCell ref="B1:L5"/>
@@ -3256,6 +3230,40 @@
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="D32:L32"/>
     <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:L33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:L34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:L29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:L30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:L31"/>
+    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="B21:L21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:L23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:L25"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:L27"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:L14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:L16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:L18"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:L12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3266,8 +3274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3275,172 +3283,196 @@
     <col min="2" max="2" width="24.5703125" style="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="159" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
+    <row r="1" spans="1:22" ht="15" customHeight="1">
+      <c r="A1" s="141" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
       <c r="T1" s="11"/>
       <c r="U1" s="11"/>
       <c r="V1" s="11"/>
     </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="162"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
+    <row r="2" spans="1:22" ht="15" customHeight="1">
+      <c r="A2" s="141"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="142"/>
       <c r="T2" s="11"/>
       <c r="U2" s="11"/>
       <c r="V2" s="11"/>
     </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="162"/>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
+    <row r="3" spans="1:22" ht="15" customHeight="1">
+      <c r="A3" s="141"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="142"/>
+      <c r="R3" s="142"/>
+      <c r="S3" s="142"/>
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
     </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="162"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="164"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
+    <row r="4" spans="1:22" ht="15" customHeight="1">
+      <c r="A4" s="141"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="142"/>
+      <c r="N4" s="142"/>
+      <c r="O4" s="142"/>
+      <c r="P4" s="142"/>
+      <c r="Q4" s="142"/>
+      <c r="R4" s="142"/>
+      <c r="S4" s="142"/>
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
     </row>
-    <row r="5" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A5" s="165"/>
-      <c r="B5" s="166"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="166"/>
-      <c r="H5" s="166"/>
-      <c r="I5" s="166"/>
-      <c r="J5" s="166"/>
-      <c r="K5" s="167"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
+    <row r="5" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A5" s="141"/>
+      <c r="B5" s="142"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="142"/>
+      <c r="O5" s="142"/>
+      <c r="P5" s="142"/>
+      <c r="Q5" s="142"/>
+      <c r="R5" s="142"/>
+      <c r="S5" s="142"/>
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
       <c r="V5" s="11"/>
     </row>
     <row r="6" spans="1:22" ht="15" customHeight="1">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="192" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="135"/>
+      <c r="B6" s="193"/>
+      <c r="C6" s="193"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="193"/>
+      <c r="H6" s="193"/>
+      <c r="I6" s="193"/>
+      <c r="J6" s="193"/>
+      <c r="K6" s="193"/>
+      <c r="L6" s="193"/>
+      <c r="M6" s="193"/>
+      <c r="N6" s="193"/>
+      <c r="O6" s="193"/>
+      <c r="P6" s="193"/>
+      <c r="Q6" s="193"/>
+      <c r="R6" s="193"/>
+      <c r="S6" s="193"/>
     </row>
     <row r="7" spans="1:22" ht="18" customHeight="1" thickBot="1">
-      <c r="A7" s="136"/>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="138"/>
+      <c r="A7" s="192"/>
+      <c r="B7" s="193"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="193"/>
+      <c r="K7" s="193"/>
+      <c r="L7" s="193"/>
+      <c r="M7" s="193"/>
+      <c r="N7" s="193"/>
+      <c r="O7" s="193"/>
+      <c r="P7" s="193"/>
+      <c r="Q7" s="193"/>
+      <c r="R7" s="193"/>
+      <c r="S7" s="193"/>
     </row>
     <row r="8" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A8" s="139" t="s">
+      <c r="A8" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="140"/>
-      <c r="C8" s="141" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="142"/>
-      <c r="E8" s="142"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="142"/>
-      <c r="K8" s="143"/>
+      <c r="B8" s="169"/>
+      <c r="C8" s="194" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
+      <c r="G8" s="195"/>
+      <c r="H8" s="195"/>
+      <c r="I8" s="195"/>
+      <c r="J8" s="195"/>
+      <c r="K8" s="195"/>
+      <c r="L8" s="195"/>
+      <c r="M8" s="195"/>
+      <c r="N8" s="195"/>
+      <c r="O8" s="195"/>
+      <c r="P8" s="195"/>
+      <c r="Q8" s="195"/>
+      <c r="R8" s="195"/>
+      <c r="S8" s="196"/>
     </row>
     <row r="9" spans="1:22">
       <c r="B9" s="69"/>
@@ -3462,22 +3494,22 @@
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="144" t="s">
+      <c r="F11" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="145"/>
-      <c r="K11" s="145"/>
-      <c r="L11" s="145"/>
-      <c r="M11" s="145"/>
-      <c r="N11" s="145"/>
-      <c r="O11" s="145"/>
-      <c r="P11" s="145"/>
-      <c r="Q11" s="145"/>
-      <c r="R11" s="145"/>
-      <c r="S11" s="146"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="148"/>
+      <c r="K11" s="148"/>
+      <c r="L11" s="148"/>
+      <c r="M11" s="148"/>
+      <c r="N11" s="148"/>
+      <c r="O11" s="148"/>
+      <c r="P11" s="148"/>
+      <c r="Q11" s="148"/>
+      <c r="R11" s="148"/>
+      <c r="S11" s="149"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1">
       <c r="A12" s="17"/>
@@ -3485,28 +3517,28 @@
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
-      <c r="F12" s="147" t="s">
+      <c r="F12" s="150" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="148"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="150" t="s">
+      <c r="G12" s="151"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="151"/>
-      <c r="K12" s="152"/>
-      <c r="L12" s="153" t="s">
+      <c r="J12" s="154"/>
+      <c r="K12" s="155"/>
+      <c r="L12" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="M12" s="154"/>
-      <c r="N12" s="154"/>
-      <c r="O12" s="154"/>
-      <c r="P12" s="155"/>
-      <c r="Q12" s="156" t="s">
+      <c r="M12" s="157"/>
+      <c r="N12" s="157"/>
+      <c r="O12" s="157"/>
+      <c r="P12" s="158"/>
+      <c r="Q12" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="R12" s="157"/>
-      <c r="S12" s="158"/>
+      <c r="R12" s="160"/>
+      <c r="S12" s="161"/>
     </row>
     <row r="13" spans="1:22" ht="38.25">
       <c r="A13" s="18" t="s">
@@ -3568,14 +3600,14 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="38.25">
-      <c r="A14" s="193" t="s">
+      <c r="A14" s="77" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>61</v>
@@ -3584,7 +3616,7 @@
         <v>62</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G14" s="24" t="s">
         <v>63</v>
@@ -3593,7 +3625,7 @@
         <v>64</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J14" s="24" t="s">
         <v>63</v>
@@ -3608,7 +3640,7 @@
         <v>65</v>
       </c>
       <c r="N14" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O14" s="24" t="s">
         <v>63</v>
@@ -3617,7 +3649,7 @@
         <v>66</v>
       </c>
       <c r="Q14" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R14" s="24" t="s">
         <v>63</v>
@@ -3627,14 +3659,14 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="38.25">
-      <c r="A15" s="194" t="s">
+      <c r="A15" s="78" t="s">
         <v>67</v>
       </c>
       <c r="B15" s="65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>61</v>
@@ -3643,7 +3675,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G15" s="24" t="s">
         <v>63</v>
@@ -3652,7 +3684,7 @@
         <v>64</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J15" s="24" t="s">
         <v>63</v>
@@ -3667,7 +3699,7 @@
         <v>65</v>
       </c>
       <c r="N15" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O15" s="24" t="s">
         <v>63</v>
@@ -3676,7 +3708,7 @@
         <v>66</v>
       </c>
       <c r="Q15" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R15" s="24" t="s">
         <v>63</v>
@@ -3686,14 +3718,14 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="38.25">
-      <c r="A16" s="194" t="s">
+      <c r="A16" s="78" t="s">
         <v>68</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>61</v>
@@ -3702,7 +3734,7 @@
         <v>62</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G16" s="24" t="s">
         <v>63</v>
@@ -3711,7 +3743,7 @@
         <v>64</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J16" s="24" t="s">
         <v>63</v>
@@ -3726,7 +3758,7 @@
         <v>65</v>
       </c>
       <c r="N16" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O16" s="24" t="s">
         <v>63</v>
@@ -3735,7 +3767,7 @@
         <v>66</v>
       </c>
       <c r="Q16" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R16" s="24" t="s">
         <v>63</v>
@@ -3745,14 +3777,14 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="38.25">
-      <c r="A17" s="194" t="s">
+      <c r="A17" s="78" t="s">
         <v>69</v>
       </c>
       <c r="B17" s="66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>61</v>
@@ -3761,7 +3793,7 @@
         <v>62</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G17" s="24" t="s">
         <v>63</v>
@@ -3770,7 +3802,7 @@
         <v>64</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J17" s="24" t="s">
         <v>63</v>
@@ -3785,7 +3817,7 @@
         <v>65</v>
       </c>
       <c r="N17" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O17" s="24" t="s">
         <v>63</v>
@@ -3794,7 +3826,7 @@
         <v>66</v>
       </c>
       <c r="Q17" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R17" s="24" t="s">
         <v>63</v>
@@ -3804,14 +3836,14 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="38.25">
-      <c r="A18" s="194" t="s">
+      <c r="A18" s="78" t="s">
         <v>70</v>
       </c>
       <c r="B18" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>61</v>
@@ -3820,7 +3852,7 @@
         <v>62</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G18" s="24" t="s">
         <v>63</v>
@@ -3829,7 +3861,7 @@
         <v>64</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J18" s="24" t="s">
         <v>63</v>
@@ -3844,7 +3876,7 @@
         <v>65</v>
       </c>
       <c r="N18" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O18" s="24" t="s">
         <v>63</v>
@@ -3853,7 +3885,7 @@
         <v>66</v>
       </c>
       <c r="Q18" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R18" s="24" t="s">
         <v>63</v>
@@ -3863,14 +3895,14 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="38.25">
-      <c r="A19" s="194" t="s">
+      <c r="A19" s="78" t="s">
         <v>71</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>61</v>
@@ -3879,7 +3911,7 @@
         <v>62</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G19" s="24" t="s">
         <v>63</v>
@@ -3888,7 +3920,7 @@
         <v>64</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J19" s="24" t="s">
         <v>63</v>
@@ -3903,7 +3935,7 @@
         <v>65</v>
       </c>
       <c r="N19" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O19" s="24" t="s">
         <v>63</v>
@@ -3912,7 +3944,7 @@
         <v>66</v>
       </c>
       <c r="Q19" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R19" s="24" t="s">
         <v>63</v>
@@ -3922,14 +3954,14 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="38.25">
-      <c r="A20" s="194" t="s">
+      <c r="A20" s="78" t="s">
         <v>72</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>61</v>
@@ -3938,7 +3970,7 @@
         <v>62</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G20" s="24" t="s">
         <v>63</v>
@@ -3947,7 +3979,7 @@
         <v>64</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J20" s="24" t="s">
         <v>63</v>
@@ -3962,7 +3994,7 @@
         <v>65</v>
       </c>
       <c r="N20" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O20" s="24" t="s">
         <v>63</v>
@@ -3971,7 +4003,7 @@
         <v>66</v>
       </c>
       <c r="Q20" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R20" s="24" t="s">
         <v>63</v>
@@ -3981,14 +4013,14 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="38.25">
-      <c r="A21" s="193" t="s">
+      <c r="A21" s="77" t="s">
         <v>73</v>
       </c>
       <c r="B21" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>61</v>
@@ -3997,7 +4029,7 @@
         <v>62</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G21" s="24" t="s">
         <v>63</v>
@@ -4006,7 +4038,7 @@
         <v>64</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J21" s="24" t="s">
         <v>63</v>
@@ -4021,7 +4053,7 @@
         <v>65</v>
       </c>
       <c r="N21" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O21" s="24" t="s">
         <v>63</v>
@@ -4030,7 +4062,7 @@
         <v>66</v>
       </c>
       <c r="Q21" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R21" s="24" t="s">
         <v>63</v>
@@ -4040,14 +4072,14 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="38.25">
-      <c r="A22" s="194" t="s">
+      <c r="A22" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="192" t="s">
-        <v>123</v>
+      <c r="B22" s="76" t="s">
+        <v>122</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>61</v>
@@ -4056,7 +4088,7 @@
         <v>62</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G22" s="24" t="s">
         <v>63</v>
@@ -4065,7 +4097,7 @@
         <v>64</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J22" s="24" t="s">
         <v>63</v>
@@ -4080,7 +4112,7 @@
         <v>65</v>
       </c>
       <c r="N22" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O22" s="24" t="s">
         <v>63</v>
@@ -4089,7 +4121,7 @@
         <v>66</v>
       </c>
       <c r="Q22" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R22" s="24" t="s">
         <v>63</v>
@@ -4099,14 +4131,14 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="38.25">
-      <c r="A23" s="194" t="s">
+      <c r="A23" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="192" t="s">
-        <v>124</v>
+      <c r="B23" s="76" t="s">
+        <v>123</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>61</v>
@@ -4115,7 +4147,7 @@
         <v>62</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G23" s="24" t="s">
         <v>63</v>
@@ -4124,7 +4156,7 @@
         <v>64</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J23" s="24" t="s">
         <v>63</v>
@@ -4139,7 +4171,7 @@
         <v>65</v>
       </c>
       <c r="N23" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O23" s="24" t="s">
         <v>63</v>
@@ -4148,7 +4180,7 @@
         <v>66</v>
       </c>
       <c r="Q23" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R23" s="24" t="s">
         <v>63</v>
@@ -4158,14 +4190,14 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="38.25">
-      <c r="A24" s="194" t="s">
+      <c r="A24" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="192" t="s">
-        <v>125</v>
+      <c r="B24" s="76" t="s">
+        <v>124</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>61</v>
@@ -4174,7 +4206,7 @@
         <v>62</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G24" s="24" t="s">
         <v>63</v>
@@ -4183,7 +4215,7 @@
         <v>64</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J24" s="24" t="s">
         <v>63</v>
@@ -4198,7 +4230,7 @@
         <v>65</v>
       </c>
       <c r="N24" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O24" s="24" t="s">
         <v>63</v>
@@ -4207,7 +4239,7 @@
         <v>66</v>
       </c>
       <c r="Q24" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R24" s="24" t="s">
         <v>63</v>
@@ -4217,14 +4249,14 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="38.25">
-      <c r="A25" s="194" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25" s="192" t="s">
-        <v>126</v>
+      <c r="A25" s="78" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="76" t="s">
+        <v>125</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>61</v>
@@ -4233,7 +4265,7 @@
         <v>62</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G25" s="24" t="s">
         <v>63</v>
@@ -4242,7 +4274,7 @@
         <v>64</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J25" s="24" t="s">
         <v>63</v>
@@ -4257,7 +4289,7 @@
         <v>65</v>
       </c>
       <c r="N25" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O25" s="24" t="s">
         <v>63</v>
@@ -4266,7 +4298,7 @@
         <v>66</v>
       </c>
       <c r="Q25" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R25" s="24" t="s">
         <v>63</v>
@@ -4276,14 +4308,14 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="38.25">
-      <c r="A26" s="193" t="s">
+      <c r="A26" s="77" t="s">
         <v>77</v>
       </c>
       <c r="B26" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>61</v>
@@ -4292,7 +4324,7 @@
         <v>62</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G26" s="24" t="s">
         <v>63</v>
@@ -4301,7 +4333,7 @@
         <v>64</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J26" s="24" t="s">
         <v>63</v>
@@ -4316,7 +4348,7 @@
         <v>65</v>
       </c>
       <c r="N26" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O26" s="24" t="s">
         <v>63</v>
@@ -4325,7 +4357,7 @@
         <v>66</v>
       </c>
       <c r="Q26" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R26" s="24" t="s">
         <v>63</v>
@@ -4335,14 +4367,14 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="38.25">
-      <c r="A27" s="194" t="s">
+      <c r="A27" s="78" t="s">
         <v>78</v>
       </c>
       <c r="B27" s="67" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>61</v>
@@ -4351,7 +4383,7 @@
         <v>62</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G27" s="24" t="s">
         <v>63</v>
@@ -4360,7 +4392,7 @@
         <v>64</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J27" s="24" t="s">
         <v>63</v>
@@ -4375,7 +4407,7 @@
         <v>65</v>
       </c>
       <c r="N27" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O27" s="24" t="s">
         <v>63</v>
@@ -4384,7 +4416,7 @@
         <v>66</v>
       </c>
       <c r="Q27" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R27" s="24" t="s">
         <v>63</v>
@@ -4398,34 +4430,34 @@
       <c r="J28" s="13"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="B30" s="190"/>
+      <c r="B30" s="74"/>
     </row>
     <row r="31" spans="1:19">
-      <c r="B31" s="191"/>
+      <c r="B31" s="75"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="B32" s="191"/>
+      <c r="B32" s="75"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="191"/>
+      <c r="B33" s="75"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="191"/>
+      <c r="B34" s="75"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="191"/>
+      <c r="B35" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A1:K5"/>
     <mergeCell ref="F11:S11"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="L12:P12"/>
     <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="A6:K7"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="A1:S5"/>
+    <mergeCell ref="A6:S7"/>
+    <mergeCell ref="C8:S8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4437,7 +4469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -4457,19 +4489,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="15" customHeight="1">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="138" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="161"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="140"/>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
@@ -4508,17 +4540,17 @@
       <c r="AU1" s="11"/>
     </row>
     <row r="2" spans="1:47" ht="15" customHeight="1">
-      <c r="A2" s="162"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="164"/>
+      <c r="A2" s="141"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="143"/>
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
@@ -4557,17 +4589,17 @@
       <c r="AU2" s="11"/>
     </row>
     <row r="3" spans="1:47" ht="15" customHeight="1">
-      <c r="A3" s="162"/>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="164"/>
+      <c r="A3" s="141"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="143"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -4606,17 +4638,17 @@
       <c r="AU3" s="11"/>
     </row>
     <row r="4" spans="1:47" ht="15" customHeight="1">
-      <c r="A4" s="162"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="164"/>
+      <c r="A4" s="141"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="143"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
@@ -4655,17 +4687,17 @@
       <c r="AU4" s="11"/>
     </row>
     <row r="5" spans="1:47" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="165"/>
-      <c r="B5" s="166"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="166"/>
-      <c r="H5" s="166"/>
-      <c r="I5" s="166"/>
-      <c r="J5" s="166"/>
-      <c r="K5" s="167"/>
+      <c r="A5" s="144"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="146"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
@@ -4704,49 +4736,49 @@
       <c r="AU5" s="11"/>
     </row>
     <row r="6" spans="1:47">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="162" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="135"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="164"/>
     </row>
     <row r="7" spans="1:47" ht="18" customHeight="1" thickBot="1">
-      <c r="A7" s="136"/>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="138"/>
+      <c r="A7" s="165"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="167"/>
     </row>
     <row r="8" spans="1:47" ht="15.75" thickBot="1">
-      <c r="A8" s="187" t="s">
+      <c r="A8" s="170" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="188"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="168" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="170"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="173" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="174"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="175"/>
     </row>
     <row r="9" spans="1:47" ht="15.75" thickBot="1">
       <c r="A9" s="14"/>
@@ -4765,50 +4797,50 @@
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
-      <c r="F10" s="174" t="s">
+      <c r="F10" s="179" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="175"/>
-      <c r="H10" s="175"/>
-      <c r="I10" s="175"/>
-      <c r="J10" s="175"/>
-      <c r="K10" s="175"/>
-      <c r="L10" s="175"/>
-      <c r="M10" s="175"/>
-      <c r="N10" s="175"/>
-      <c r="O10" s="175"/>
-      <c r="P10" s="175"/>
-      <c r="Q10" s="175"/>
-      <c r="R10" s="175"/>
-      <c r="S10" s="175"/>
-      <c r="T10" s="175"/>
-      <c r="U10" s="175"/>
-      <c r="V10" s="175"/>
-      <c r="W10" s="175"/>
-      <c r="X10" s="175"/>
-      <c r="Y10" s="175"/>
-      <c r="Z10" s="175"/>
-      <c r="AA10" s="175"/>
-      <c r="AB10" s="175"/>
-      <c r="AC10" s="175"/>
-      <c r="AD10" s="175"/>
-      <c r="AE10" s="175"/>
-      <c r="AF10" s="175"/>
-      <c r="AG10" s="175"/>
-      <c r="AH10" s="175"/>
-      <c r="AI10" s="175"/>
-      <c r="AJ10" s="175"/>
-      <c r="AK10" s="175"/>
-      <c r="AL10" s="175"/>
-      <c r="AM10" s="175"/>
-      <c r="AN10" s="175"/>
-      <c r="AO10" s="175"/>
-      <c r="AP10" s="175"/>
-      <c r="AQ10" s="175"/>
-      <c r="AR10" s="175"/>
-      <c r="AS10" s="175"/>
-      <c r="AT10" s="175"/>
-      <c r="AU10" s="176"/>
+      <c r="G10" s="180"/>
+      <c r="H10" s="180"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="180"/>
+      <c r="L10" s="180"/>
+      <c r="M10" s="180"/>
+      <c r="N10" s="180"/>
+      <c r="O10" s="180"/>
+      <c r="P10" s="180"/>
+      <c r="Q10" s="180"/>
+      <c r="R10" s="180"/>
+      <c r="S10" s="180"/>
+      <c r="T10" s="180"/>
+      <c r="U10" s="180"/>
+      <c r="V10" s="180"/>
+      <c r="W10" s="180"/>
+      <c r="X10" s="180"/>
+      <c r="Y10" s="180"/>
+      <c r="Z10" s="180"/>
+      <c r="AA10" s="180"/>
+      <c r="AB10" s="180"/>
+      <c r="AC10" s="180"/>
+      <c r="AD10" s="180"/>
+      <c r="AE10" s="180"/>
+      <c r="AF10" s="180"/>
+      <c r="AG10" s="180"/>
+      <c r="AH10" s="180"/>
+      <c r="AI10" s="180"/>
+      <c r="AJ10" s="180"/>
+      <c r="AK10" s="180"/>
+      <c r="AL10" s="180"/>
+      <c r="AM10" s="180"/>
+      <c r="AN10" s="180"/>
+      <c r="AO10" s="180"/>
+      <c r="AP10" s="180"/>
+      <c r="AQ10" s="180"/>
+      <c r="AR10" s="180"/>
+      <c r="AS10" s="180"/>
+      <c r="AT10" s="180"/>
+      <c r="AU10" s="181"/>
     </row>
     <row r="11" spans="1:47" ht="18.75" thickBot="1">
       <c r="A11" s="15"/>
@@ -4816,54 +4848,54 @@
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="177" t="s">
+      <c r="F11" s="182" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="178"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="178"/>
-      <c r="K11" s="178"/>
-      <c r="L11" s="178"/>
-      <c r="M11" s="178"/>
-      <c r="N11" s="179"/>
-      <c r="O11" s="180" t="s">
+      <c r="G11" s="183"/>
+      <c r="H11" s="183"/>
+      <c r="I11" s="183"/>
+      <c r="J11" s="183"/>
+      <c r="K11" s="183"/>
+      <c r="L11" s="183"/>
+      <c r="M11" s="183"/>
+      <c r="N11" s="184"/>
+      <c r="O11" s="185" t="s">
         <v>80</v>
       </c>
-      <c r="P11" s="181"/>
-      <c r="Q11" s="181"/>
-      <c r="R11" s="181"/>
-      <c r="S11" s="181"/>
-      <c r="T11" s="181"/>
-      <c r="U11" s="181"/>
-      <c r="V11" s="181"/>
-      <c r="W11" s="181"/>
-      <c r="X11" s="181"/>
-      <c r="Y11" s="181"/>
-      <c r="Z11" s="181"/>
-      <c r="AA11" s="181"/>
-      <c r="AB11" s="181"/>
-      <c r="AC11" s="181"/>
-      <c r="AD11" s="181"/>
-      <c r="AE11" s="181"/>
-      <c r="AF11" s="181"/>
-      <c r="AG11" s="181"/>
-      <c r="AH11" s="181"/>
-      <c r="AI11" s="181"/>
-      <c r="AJ11" s="181"/>
-      <c r="AK11" s="181"/>
-      <c r="AL11" s="182"/>
-      <c r="AM11" s="180" t="s">
+      <c r="P11" s="186"/>
+      <c r="Q11" s="186"/>
+      <c r="R11" s="186"/>
+      <c r="S11" s="186"/>
+      <c r="T11" s="186"/>
+      <c r="U11" s="186"/>
+      <c r="V11" s="186"/>
+      <c r="W11" s="186"/>
+      <c r="X11" s="186"/>
+      <c r="Y11" s="186"/>
+      <c r="Z11" s="186"/>
+      <c r="AA11" s="186"/>
+      <c r="AB11" s="186"/>
+      <c r="AC11" s="186"/>
+      <c r="AD11" s="186"/>
+      <c r="AE11" s="186"/>
+      <c r="AF11" s="186"/>
+      <c r="AG11" s="186"/>
+      <c r="AH11" s="186"/>
+      <c r="AI11" s="186"/>
+      <c r="AJ11" s="186"/>
+      <c r="AK11" s="186"/>
+      <c r="AL11" s="187"/>
+      <c r="AM11" s="185" t="s">
         <v>81</v>
       </c>
-      <c r="AN11" s="181"/>
-      <c r="AO11" s="181"/>
-      <c r="AP11" s="181"/>
-      <c r="AQ11" s="181"/>
-      <c r="AR11" s="181"/>
-      <c r="AS11" s="181"/>
-      <c r="AT11" s="181"/>
-      <c r="AU11" s="182"/>
+      <c r="AN11" s="186"/>
+      <c r="AO11" s="186"/>
+      <c r="AP11" s="186"/>
+      <c r="AQ11" s="186"/>
+      <c r="AR11" s="186"/>
+      <c r="AS11" s="186"/>
+      <c r="AT11" s="186"/>
+      <c r="AU11" s="187"/>
     </row>
     <row r="12" spans="1:47" s="52" customFormat="1" ht="36.75" customHeight="1" thickBot="1">
       <c r="A12" s="62"/>
@@ -4871,66 +4903,66 @@
       <c r="C12" s="62"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
-      <c r="F12" s="147" t="s">
+      <c r="F12" s="150" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="148"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="150" t="s">
+      <c r="G12" s="151"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="153" t="s">
         <v>83</v>
       </c>
-      <c r="J12" s="151"/>
-      <c r="K12" s="152"/>
-      <c r="L12" s="183" t="s">
+      <c r="J12" s="154"/>
+      <c r="K12" s="155"/>
+      <c r="L12" s="188" t="s">
         <v>84</v>
       </c>
-      <c r="M12" s="183"/>
-      <c r="N12" s="183"/>
-      <c r="O12" s="147" t="s">
+      <c r="M12" s="188"/>
+      <c r="N12" s="188"/>
+      <c r="O12" s="150" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="148"/>
-      <c r="Q12" s="148"/>
-      <c r="R12" s="148"/>
-      <c r="S12" s="148"/>
-      <c r="T12" s="149"/>
-      <c r="U12" s="150" t="s">
+      <c r="P12" s="151"/>
+      <c r="Q12" s="151"/>
+      <c r="R12" s="151"/>
+      <c r="S12" s="151"/>
+      <c r="T12" s="152"/>
+      <c r="U12" s="153" t="s">
         <v>86</v>
       </c>
-      <c r="V12" s="151"/>
-      <c r="W12" s="151"/>
-      <c r="X12" s="151"/>
-      <c r="Y12" s="151"/>
-      <c r="Z12" s="152"/>
-      <c r="AA12" s="184" t="s">
+      <c r="V12" s="154"/>
+      <c r="W12" s="154"/>
+      <c r="X12" s="154"/>
+      <c r="Y12" s="154"/>
+      <c r="Z12" s="155"/>
+      <c r="AA12" s="189" t="s">
         <v>87</v>
       </c>
-      <c r="AB12" s="185"/>
-      <c r="AC12" s="185"/>
-      <c r="AD12" s="185"/>
-      <c r="AE12" s="185"/>
-      <c r="AF12" s="186"/>
-      <c r="AG12" s="171" t="s">
+      <c r="AB12" s="190"/>
+      <c r="AC12" s="190"/>
+      <c r="AD12" s="190"/>
+      <c r="AE12" s="190"/>
+      <c r="AF12" s="191"/>
+      <c r="AG12" s="176" t="s">
         <v>88</v>
       </c>
-      <c r="AH12" s="172"/>
-      <c r="AI12" s="172"/>
-      <c r="AJ12" s="172"/>
-      <c r="AK12" s="172"/>
-      <c r="AL12" s="173"/>
-      <c r="AM12" s="147" t="s">
+      <c r="AH12" s="177"/>
+      <c r="AI12" s="177"/>
+      <c r="AJ12" s="177"/>
+      <c r="AK12" s="177"/>
+      <c r="AL12" s="178"/>
+      <c r="AM12" s="150" t="s">
         <v>89</v>
       </c>
-      <c r="AN12" s="148"/>
-      <c r="AO12" s="149"/>
-      <c r="AP12" s="150" t="s">
+      <c r="AN12" s="151"/>
+      <c r="AO12" s="152"/>
+      <c r="AP12" s="153" t="s">
         <v>90</v>
       </c>
-      <c r="AQ12" s="151"/>
-      <c r="AR12" s="151"/>
-      <c r="AS12" s="151"/>
-      <c r="AT12" s="151"/>
-      <c r="AU12" s="151"/>
+      <c r="AQ12" s="154"/>
+      <c r="AR12" s="154"/>
+      <c r="AS12" s="154"/>
+      <c r="AT12" s="154"/>
+      <c r="AU12" s="154"/>
     </row>
     <row r="13" spans="1:47" s="61" customFormat="1" ht="48" customHeight="1">
       <c r="A13" s="53" t="s">
@@ -5236,11 +5268,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:K5"/>
-    <mergeCell ref="A6:K7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="AG12:AL12"/>
     <mergeCell ref="AM12:AO12"/>
     <mergeCell ref="AP12:AU12"/>
     <mergeCell ref="F10:AU10"/>
@@ -5253,6 +5280,11 @@
     <mergeCell ref="O12:T12"/>
     <mergeCell ref="U12:Z12"/>
     <mergeCell ref="AA12:AF12"/>
+    <mergeCell ref="A1:K5"/>
+    <mergeCell ref="A6:K7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="AG12:AL12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
